--- a/2. EXCEL SKILLS FOR BUSINESS/COURSE 1 - ESSENTIALS/WEEK 1/W01-V01 Take charge.xlsx
+++ b/2. EXCEL SKILLS FOR BUSINESS/COURSE 1 - ESSENTIALS/WEEK 1/W01-V01 Take charge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\_Excel Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_EE0C8228E633CD4583510C85EF6F10C9D313AABF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE721FC3-3CC6-4C67-B36B-B2D462FDAD4F}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_EE0C8228E633CD4583510C85EF6F10C9D313AABF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFE9015B-9CBF-4886-B658-F4367D3E698A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10526" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12532" uniqueCount="1908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12531" uniqueCount="1908">
   <si>
     <t xml:space="preserve"> Shipping Data</t>
   </si>
@@ -84547,12 +84547,13 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.7" thickBot="1">
@@ -84585,6 +84586,10 @@
       <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="G5">
+        <f>_xlfn.DAYS("12/05/2025", "11/02/2025")</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="8" t="s">
@@ -84595,9 +84600,7 @@
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
